--- a/So sanh SCADA _ DCS.xlsx
+++ b/So sanh SCADA _ DCS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>So sánh các đặt trưng của SCADA và DCS</t>
   </si>
@@ -34,6 +34,30 @@
   </si>
   <si>
     <t>Hệ thống PLC+SCADA/HMI</t>
+  </si>
+  <si>
+    <t>Một hệ scada thường làm một hệ ĐKPT(Nghĩa rộng)</t>
+  </si>
+  <si>
+    <t>một hệ DCS có chức năng của Scada</t>
+  </si>
+  <si>
+    <t>Một hệ scada không có chức năng điều khiển cơ sở.=&gt; không bao giờ được gọi một hệ DCS, mặt dù nó có thể được xây dựng trên cơ sở các thành phần của một hệ DCS</t>
+  </si>
+  <si>
+    <t>Cấu trúc phần cứng</t>
+  </si>
+  <si>
+    <t>Phạm vi chức năng</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ lập trình</t>
+  </si>
+  <si>
+    <t>Phần cứng chọn gói, môi trường phát triền tích hợp,(điều khiển cơ sở, điều khiển cao cấp, HMI,...), cơ sở dữ liệu toàn cục.</t>
+  </si>
+  <si>
+    <t>Cấu hình phần cứng tương dối tự do, công cụ lập trình PLC và công cụ Scada/HMI độc lập với nhau, cơ sở dữ liệu độc lập =&gt; Phức tạp hơn.</t>
   </si>
 </sst>
 </file>
@@ -195,36 +219,42 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -510,93 +540,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="18.85546875" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-    </row>
-    <row r="4" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-      <c r="C4" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+    </row>
+    <row r="3" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+    </row>
+    <row r="4" spans="1:22" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="7" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="12"/>
@@ -605,95 +634,172 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="H6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:22" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="11">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:22" s="11" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-    </row>
+    <row r="20" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K13:S13"/>
+  <mergeCells count="14">
     <mergeCell ref="A2:V3"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="L4:T4"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="A13:A19"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:T13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="L14:T14"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:T15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/So sanh SCADA _ DCS.xlsx
+++ b/So sanh SCADA _ DCS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>So sánh các đặt trưng của SCADA và DCS</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Một hệ scada thường làm một hệ ĐKPT(Nghĩa rộng)</t>
   </si>
   <si>
-    <t>một hệ DCS có chức năng của Scada</t>
-  </si>
-  <si>
     <t>Một hệ scada không có chức năng điều khiển cơ sở.=&gt; không bao giờ được gọi một hệ DCS, mặt dù nó có thể được xây dựng trên cơ sở các thành phần của một hệ DCS</t>
   </si>
   <si>
@@ -58,13 +55,37 @@
   </si>
   <si>
     <t>Cấu hình phần cứng tương dối tự do, công cụ lập trình PLC và công cụ Scada/HMI độc lập với nhau, cơ sở dữ liệu độc lập =&gt; Phức tạp hơn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dựa trên các phần cứng và phần mềm điều khiển và thu thập dữ liệu trên cơ sở 1 đường truyền thông tin tốc độ cao, các module được phân tán và tổ chức theo 1 cấu trúc nhất định với một chức năng và nhiệm vụ riêng. Các thiết bị giao tiếp trên đường truyền tốc độ cao này cho phép ghép nối dễ dàng với các bộ PLC, Controller, máy tính điều khiển giám sát khác.</t>
+  </si>
+  <si>
+    <t>Các chức năng điều khiển được phân bố khắp hệ thống thay vì xử lý tập trung trên một máy tính riêng lẻ. Một hệ thống DCS tiêu biểu có các trạm điều khiển hoạt dộng độc lập  và điều khiển từng bộ phận chuyên dụng của nhà máy,...</t>
+  </si>
+  <si>
+    <t>Khả năng sử lý tín hiệu tương tự và chạy các trình tự phức tạp là thế mạnh của hệ thống DCS.</t>
+  </si>
+  <si>
+    <t>Một hệ DCS có chức năng của Scada</t>
+  </si>
+  <si>
+    <t>Cấu trúc hệ thống DCS</t>
+  </si>
+  <si>
+    <t>có thể hiểu Scada là hệ thống dùng trong các ứng dụng điều khiển quá trình, công nghiệp hóa chất, truyền tải điện năng. Nó dựa trên một máy tính xử lý trung tâm, dữ lệu thu thập từ các cảm biến đặt tại các phân xưởng, các tòa nhà,.. Hay các trạm từ xa được gửi về máy tính trung tâm để quản lý và điều khiển.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân bố thành bốn nhóm chính với các chức năng.
+SCADA độ lập/ Scada nối mạng
+SCADA ko có khả năng đồ họa/SCADA có khả năng xử lý đồ họa thộng tin thời gian thực
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +98,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,14 +133,42 @@
       <charset val="163"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,7 +187,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -211,56 +268,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="40% - Accent4" xfId="3" builtinId="43"/>
+    <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -273,6 +350,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>578844</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>148762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6749142" y="7987393"/>
+          <a:ext cx="6552381" cy="7333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="https://f9a17e7a-a-62cb3a1a-s-sites.googlegroups.com/site/vutuanvinhbk/kien-thuc-do-luong---dieu-khien/scada--dcs/2.4.%20Cau%20truc%20he%20thong%20SCADA.jpg?attachauth=ANoY7cr63NN5Ao45wVr-iVWWD3M8RU6hR3bnFyGKPlMmRHqCxQADdXLpqIxtocrS2nCkA239uNSyriszgcSjlB126nmQ2DL3TG3qHA7nxtN4iwE9Ww0rl_Kdko554AQ3vCGvwH2_OHojMpT6JaPiKOUtc-8rZcFA8OWZCe1msJ6ChLWPG9L2-XhwdtZ60hK7KpvvAaZMkXb7QEX4R56JmqAfOymCvoOi2xDg6Y0q6ees_z8eNMeM9bXGxw8kwW6X4zL4lYyDGiqLvut5Y6onm3P7nBY_lmTqG5j1GS2PyZv22mSnULAGsAc%3D&amp;attredirects=0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1061356" y="7987393"/>
+          <a:ext cx="5592536" cy="6545036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,254 +713,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V21"/>
+  <dimension ref="A2:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:K15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="11" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="1"/>
+    <col min="8" max="19" width="9.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="9.140625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-    </row>
-    <row r="3" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-    </row>
-    <row r="4" spans="1:22" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="H7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-    </row>
-    <row r="7" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="11">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="13">
+        <v>4</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10" t="s">
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="13">
         <v>6</v>
       </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="1:22" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="11">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+    </row>
+    <row r="19" spans="1:20" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="1">
         <v>7</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-    </row>
-    <row r="15" spans="1:22" s="11" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="11">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C20"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="22">
+    <mergeCell ref="L17:T17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="L18:T18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="L19:T19"/>
     <mergeCell ref="A2:V3"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="L4:T4"/>
@@ -800,8 +1092,11 @@
     <mergeCell ref="H7:O7"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="L15:T15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="L16:T16"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/So sanh SCADA _ DCS.xlsx
+++ b/So sanh SCADA _ DCS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>So sánh các đặt trưng của SCADA và DCS</t>
   </si>
@@ -79,19 +79,156 @@
 SCADA độ lập/ Scada nối mạng
 SCADA ko có khả năng đồ họa/SCADA có khả năng xử lý đồ họa thộng tin thời gian thực
 </t>
+  </si>
+  <si>
+    <t>PLC nối với máy tính qua giao thức POC link
+OPC link là một phần mềm trung gian được cài trên máy tính.
+Tagname sẽ khai báo dựa trên phần mềm OPC link</t>
+  </si>
+  <si>
+    <t>RS232</t>
+  </si>
+  <si>
+    <t>RS485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethernet </t>
+  </si>
+  <si>
+    <t>Modbus RTU</t>
+  </si>
+  <si>
+    <t>Mdbus TCP/IP</t>
+  </si>
+  <si>
+    <t>Dùng 1 byte truyền thông cho 1 byte dữ liệu</t>
+  </si>
+  <si>
+    <t>TX,RX,GNDsử dụng tín hiệu điện áp chênh lệch, giữa TX,RX so vớiđất.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sử dụng sự chênh lệch điện áp giữa hai dây A,B để phân biệt 0,1 </t>
+  </si>
+  <si>
+    <t>4000feet(1,2km)</t>
+  </si>
+  <si>
+    <t>50 feet(15m)</t>
+  </si>
+  <si>
+    <t>-+5 to-+15 V</t>
+  </si>
+  <si>
+    <t>+-5 to + -6V</t>
+  </si>
+  <si>
+    <t>3-7kW</t>
+  </si>
+  <si>
+    <t>Thông số</t>
+  </si>
+  <si>
+    <t>cấu hình đường truyền</t>
+  </si>
+  <si>
+    <t>chế độ hoạt động</t>
+  </si>
+  <si>
+    <t>độ dài cáp</t>
+  </si>
+  <si>
+    <t>điện áp</t>
+  </si>
+  <si>
+    <t>trở kháng</t>
+  </si>
+  <si>
+    <t>độ lợi tín hiệu nhận</t>
+  </si>
+  <si>
+    <t>+-3V</t>
+  </si>
+  <si>
+    <t>+-200mV</t>
+  </si>
+  <si>
+    <t>điểm tới điểm</t>
+  </si>
+  <si>
+    <t>đa điểm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tốc độ </t>
+  </si>
+  <si>
+    <t>20kbits/s</t>
+  </si>
+  <si>
+    <t>10Mbits/s</t>
+  </si>
+  <si>
+    <t>Dùng địa chỉ IP để nhận dạng giao tiếp vói nhau</t>
+  </si>
+  <si>
+    <t>12kΩ</t>
+  </si>
+  <si>
+    <t>Các thành phần của tủ điện</t>
+  </si>
+  <si>
+    <t>Cơ cấu chấp hành</t>
+  </si>
+  <si>
+    <t>nguồn 220Vac, 24Vdc,CB, relay trung gian, contactor, relay nheietj bảo vệ quá tải , PLC, HMI,...</t>
+  </si>
+  <si>
+    <t>Bơm, quạt, van, Solenoid, xilanh khí nén, motor
+ngõ ra PLC điều khiển chấp hành.
+Ngõ vào PLC gồm: Cảm biến , nút nhấn, transmitter, tranducer,công tắt hành trình, switch on/off</t>
+  </si>
+  <si>
+    <t>Relay nhiệt và contactor để bảo vệ động cơ và bảo vệ mạch điện không bị quá tải.</t>
+  </si>
+  <si>
+    <t>Phương trình PID</t>
+  </si>
+  <si>
+    <t>Khâu tỉ lệ</t>
+  </si>
+  <si>
+    <t>Khâu tích phân</t>
+  </si>
+  <si>
+    <t>Khâu vi phân</t>
+  </si>
+  <si>
+    <t>Kp:càng lớn, đáp ứng càng nhanh,sai số càng lớn, khâu tỉ lệ càng lớn</t>
+  </si>
+  <si>
+    <t>Ki: càng lớn, khử sai số ổn định càng nhanh, tăng độ vọt lố.</t>
+  </si>
+  <si>
+    <t>Kd: càng lớn, giảm độ vọt lố, làm chậm đáp ứng quá độ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="UTM Avo"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
       <sz val="11"/>
@@ -103,6 +240,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -118,23 +263,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="26"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <b/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -142,16 +354,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="16"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="UTM Avo"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -160,15 +380,13 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
+      <sz val="18"/>
+      <color rgb="FF9C6500"/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +415,42 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -267,75 +519,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
+    <cellStyle name="20% - Accent1" xfId="7" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="8" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="9" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="10" builtinId="39"/>
     <cellStyle name="40% - Accent4" xfId="3" builtinId="43"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="6" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -362,10 +710,10 @@
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>578844</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>148762</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>550269</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>5887</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -402,8 +750,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>170090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -443,6 +791,193 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266065</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>2119630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Kết quả hình ảnh cho Bộ điều khiển PID"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="23050500"/>
+          <a:ext cx="4399915" cy="2024380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>383540</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>297815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="25365075"/>
+          <a:ext cx="1602740" cy="297815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="25365075"/>
+          <a:ext cx="1704975" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743451" y="25365075"/>
+          <a:ext cx="1771650" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>260985</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1119505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="25936575"/>
+          <a:ext cx="4832985" cy="624205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -713,387 +1248,666 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V20"/>
+  <dimension ref="A2:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="1"/>
-    <col min="8" max="19" width="9.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="9.140625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="7"/>
+    <col min="8" max="12" width="9.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="7" customWidth="1"/>
+    <col min="17" max="19" width="9.140625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="7"/>
+    <col min="21" max="21" width="17.7109375" style="7" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="7" customWidth="1"/>
+    <col min="23" max="23" width="13" style="7" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" style="7" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" style="7" customWidth="1"/>
+    <col min="26" max="26" width="21.5703125" style="7" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" style="7" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:22" ht="15" customHeight="1">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="14" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" customHeight="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+    </row>
+    <row r="4" spans="1:22" ht="37.5" customHeight="1">
+      <c r="C4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="H6" s="4" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="31"/>
+      <c r="H6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="H7" s="4" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="31"/>
+      <c r="H7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="31"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="31"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="31"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="31"/>
+    </row>
+    <row r="12" spans="1:22" ht="79.5" customHeight="1">
+      <c r="A12" s="31"/>
+      <c r="C12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:22" ht="38.25" customHeight="1">
+      <c r="A13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="1">
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+    </row>
+    <row r="14" spans="1:22" ht="48.75" customHeight="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-    </row>
-    <row r="15" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="1">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+    </row>
+    <row r="15" spans="1:22" ht="54" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="7">
         <v>3</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="1:22" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="13">
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+    </row>
+    <row r="16" spans="1:22" ht="90.75" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="12">
         <v>4</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="12" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1">
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+    </row>
+    <row r="17" spans="1:20" ht="88.5" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="7">
         <v>5</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="13">
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+    </row>
+    <row r="18" spans="1:20" ht="42" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="12">
         <v>6</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="12" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-    </row>
-    <row r="19" spans="1:20" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="1">
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+    </row>
+    <row r="19" spans="1:20" ht="59.25" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="7">
         <v>7</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C20"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="C20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+    </row>
+    <row r="53" spans="3:20" ht="21">
+      <c r="C53" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+    </row>
+    <row r="54" spans="3:20" ht="116.25" customHeight="1">
+      <c r="C54" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+    </row>
+    <row r="55" spans="3:20" ht="81.75" customHeight="1">
+      <c r="C55" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+    </row>
+    <row r="56" spans="3:20" ht="21" customHeight="1">
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+    </row>
+    <row r="58" spans="3:20" ht="18.75" customHeight="1">
+      <c r="C58" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N58" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O58" s="20"/>
+      <c r="P58" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" ht="171" customHeight="1" thickBot="1">
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" ht="150.75" thickTop="1">
+      <c r="C60" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="N60" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O60" s="18"/>
+      <c r="P60" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" ht="93" customHeight="1">
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="M61" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" ht="120" customHeight="1">
+      <c r="C62" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="M62" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" ht="37.5">
+      <c r="M63" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20">
+      <c r="M64" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="13:15" ht="56.25">
+      <c r="M65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="13:15" ht="75">
+      <c r="M66" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="13:15">
+      <c r="M67" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="42">
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C58:K58"/>
+    <mergeCell ref="L19:T19"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A2:T3"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:T13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="L14:T14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:T15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="L16:T16"/>
     <mergeCell ref="L17:T17"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="L18:T18"/>
     <mergeCell ref="C19:K19"/>
-    <mergeCell ref="L19:T19"/>
-    <mergeCell ref="A2:V3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:T13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="L14:T14"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:T15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="L16:T16"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/So sanh SCADA _ DCS.xlsx
+++ b/So sanh SCADA _ DCS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>So sánh các đặt trưng của SCADA và DCS</t>
   </si>
@@ -209,13 +209,82 @@
   </si>
   <si>
     <t>Kd: càng lớn, giảm độ vọt lố, làm chậm đáp ứng quá độ</t>
+  </si>
+  <si>
+    <t>Hệ kính của hệ thống Scada</t>
+  </si>
+  <si>
+    <t>Server station</t>
+  </si>
+  <si>
+    <t>Operator Station</t>
+  </si>
+  <si>
+    <t>Máy engineer station</t>
+  </si>
+  <si>
+    <t>Máy OPC</t>
+  </si>
+  <si>
+    <t>Máy History</t>
+  </si>
+  <si>
+    <t>cấu hình toàn hệ thống nhà máy, nơi lưu trữ các data liên quan tới cấu hình hệ thống, liên kết truyền thông voeis PLC, thu thập dữ liệu</t>
+  </si>
+  <si>
+    <t>dùng để chạy giao diện HMI vận hành hệ thống công nghệ. Máy chỉ có chức năng xem, thao tác trên giao diện vận hành, ko có chức năng chỉnh sửa. Máy này được phân quyền bởi server.</t>
+  </si>
+  <si>
+    <t>dùng để chỉnh sửa các giao diện HMI, upload, download chương trinh PLC, chuẩn đoan lỗi, cấu hình,… được phân quyền từ máy Server</t>
+  </si>
+  <si>
+    <t>dùng để giao tiếp với một máy Server khác.,  2 server khác hãng sản xuất, để giao tiếp với nhau theo phương thức OPC link.</t>
+  </si>
+  <si>
+    <t>là máy dùng để lưu trữ giữ liệu, như trend, alarm, event,..</t>
+  </si>
+  <si>
+    <t>Một hệ điều khiển phân tán DCS.</t>
+  </si>
+  <si>
+    <t>chức năng đk cơ sở và giám sát, có thể cả đk cao cấp.</t>
+  </si>
+  <si>
+    <t>2. Vào/ra từ xa (RIO), vào ra phân tán</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Khối điều khiển cục bộ(LCU), bộ điều khiển</t>
+  </si>
+  <si>
+    <t>3. Trạm vận hành</t>
+  </si>
+  <si>
+    <t>4. Trạm kỹ thuật</t>
+  </si>
+  <si>
+    <t>5. Bus hệ thống(system bus, data highway), bus điều khiển</t>
+  </si>
+  <si>
+    <t>6. Tùy chọn</t>
+  </si>
+  <si>
+    <t>chức năng giao diện vận hành &amp; giám sát, quản lý dữ liệu.</t>
+  </si>
+  <si>
+    <t>phát triển phần mềm, cấu hình và chuẩn đoán hệ thống.</t>
+  </si>
+  <si>
+    <t>các loại trạm chủ, các máy tính điều khiển cao cấp, các loại bus trường, bus thiết bị.(Foundation fieldbus, dp, deviceNet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Các ký hiệu trong  chương trình PLC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +451,34 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF9C6500"/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="UTM Avo"/>
       <family val="1"/>
     </font>
@@ -559,7 +656,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,74 +701,101 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -707,13 +831,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>149678</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>102054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>550269</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>5887</xdr:rowOff>
+      <xdr:colOff>322721</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -730,8 +854,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6749142" y="7987393"/>
-          <a:ext cx="6552381" cy="7333333"/>
+          <a:off x="6698116" y="9722304"/>
+          <a:ext cx="6292855" cy="7077415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -775,8 +899,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1061356" y="7987393"/>
-          <a:ext cx="5592536" cy="6545036"/>
+          <a:off x="1057955" y="9674679"/>
+          <a:ext cx="5544911" cy="6545036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -798,57 +922,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266065</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>2119630</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="Kết quả hình ảnh cho Bộ điều khiển PID"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1219200" y="23050500"/>
-          <a:ext cx="4399915" cy="2024380"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>383540</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>297815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -857,7 +938,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -878,13 +959,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -893,7 +974,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -914,13 +995,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>485775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -929,7 +1010,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -950,13 +1031,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>260985</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>1119505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -965,7 +1046,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -974,6 +1055,49 @@
         <a:xfrm>
           <a:off x="1390650" y="25936575"/>
           <a:ext cx="4832985" cy="624205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>132715</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>2032544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Kết quả hình ảnh cho Bộ điều khiển PID"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1088571" y="27949071"/>
+          <a:ext cx="4418965" cy="2032544"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1248,15 +1372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V67"/>
+  <dimension ref="A2:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="7" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="7"/>
@@ -1278,81 +1402,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:22" ht="37.5" customHeight="1">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="11"/>
@@ -1361,260 +1485,260 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="31"/>
-      <c r="H6" s="19" t="s">
+      <c r="A6" s="32"/>
+      <c r="H6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="31"/>
-      <c r="H7" s="19" t="s">
+      <c r="A7" s="32"/>
+      <c r="H7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
     </row>
     <row r="12" spans="1:22" ht="79.5" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="C12" s="18" t="s">
+      <c r="A12" s="32"/>
+      <c r="C12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:22" ht="38.25" customHeight="1">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
     </row>
     <row r="14" spans="1:22" ht="48.75" customHeight="1">
-      <c r="A14" s="21"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
     </row>
     <row r="15" spans="1:22" ht="54" customHeight="1">
-      <c r="A15" s="21"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="7">
         <v>3</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-    </row>
-    <row r="16" spans="1:22" ht="90.75" customHeight="1">
-      <c r="A16" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+    </row>
+    <row r="16" spans="1:22" ht="106.5" customHeight="1">
+      <c r="A16" s="36"/>
       <c r="B16" s="12">
         <v>4</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-    </row>
-    <row r="17" spans="1:20" ht="88.5" customHeight="1">
-      <c r="A17" s="21"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+    </row>
+    <row r="17" spans="1:20" ht="107.25" customHeight="1">
+      <c r="A17" s="36"/>
       <c r="B17" s="7">
         <v>5</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
     </row>
     <row r="18" spans="1:20" ht="42" customHeight="1">
-      <c r="A18" s="21"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="12">
         <v>6</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
     </row>
     <row r="19" spans="1:20" ht="59.25" customHeight="1">
-      <c r="A19" s="21"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="7">
         <v>7</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
     </row>
     <row r="20" spans="1:20">
       <c r="C20" s="13"/>
@@ -1628,266 +1752,482 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="53" spans="3:20" ht="21">
-      <c r="C53" s="16" t="s">
+    <row r="52" spans="1:20" s="17" customFormat="1" ht="27">
+      <c r="C52" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+    </row>
+    <row r="53" spans="1:20" s="17" customFormat="1" ht="69.75" customHeight="1">
+      <c r="C53" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="44"/>
+      <c r="E53" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N53" s="45"/>
+      <c r="O53" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+    </row>
+    <row r="54" spans="1:20" s="17" customFormat="1" ht="87" customHeight="1">
+      <c r="C54" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="44"/>
+      <c r="E54" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="N54" s="45"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+    </row>
+    <row r="55" spans="1:20" s="17" customFormat="1" ht="52.5" customHeight="1">
+      <c r="C55" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="44"/>
+      <c r="E55" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="N55" s="45"/>
+      <c r="O55" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+    </row>
+    <row r="56" spans="1:20" s="17" customFormat="1" ht="45.75" customHeight="1">
+      <c r="C56" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="44"/>
+      <c r="E56" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="N56" s="45"/>
+      <c r="O56" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+    </row>
+    <row r="57" spans="1:20" ht="61.5" customHeight="1">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="44"/>
+      <c r="E57" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="N57" s="45"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+    </row>
+    <row r="58" spans="1:20" s="17" customFormat="1" ht="61.5" customHeight="1">
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="N58" s="46"/>
+      <c r="O58" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+    </row>
+    <row r="59" spans="1:20" ht="23.25" customHeight="1">
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+    </row>
+    <row r="60" spans="1:20" ht="50.25" customHeight="1">
+      <c r="C60" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="17" t="s">
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-    </row>
-    <row r="54" spans="3:20" ht="116.25" customHeight="1">
-      <c r="C54" s="18" t="s">
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+    </row>
+    <row r="61" spans="1:20" ht="155.25" customHeight="1">
+      <c r="C61" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18" t="s">
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-    </row>
-    <row r="55" spans="3:20" ht="81.75" customHeight="1">
-      <c r="C55" s="18" t="s">
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+    </row>
+    <row r="62" spans="1:20" ht="88.5" customHeight="1">
+      <c r="C62" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-    </row>
-    <row r="56" spans="3:20" ht="21" customHeight="1">
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
-    </row>
-    <row r="58" spans="3:20" ht="18.75" customHeight="1">
-      <c r="C58" s="37" t="s">
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+    </row>
+    <row r="63" spans="1:20" ht="27">
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+    </row>
+    <row r="64" spans="1:20" ht="13.5" customHeight="1"/>
+    <row r="65" spans="3:16" ht="93" customHeight="1">
+      <c r="C65" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="1" t="s">
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N58" s="20" t="s">
+      <c r="N65" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="O58" s="20"/>
-      <c r="P58" s="2" t="s">
+      <c r="O65" s="35"/>
+      <c r="P65" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="3:20" ht="171" customHeight="1" thickBot="1">
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="4" t="s">
+    <row r="66" spans="3:16" ht="180.75" customHeight="1" thickBot="1">
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O59" s="5" t="s">
+      <c r="O66" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="6" t="s">
+      <c r="P66" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="3:20" ht="150.75" thickTop="1">
-      <c r="C60" s="34" t="s">
+    <row r="67" spans="3:16" ht="93" customHeight="1" thickTop="1">
+      <c r="C67" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="35" t="s">
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="36" t="s">
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="N60" s="18" t="s">
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="N67" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="O60" s="18"/>
-      <c r="P60" s="8" t="s">
+      <c r="O67" s="22"/>
+      <c r="P67" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="3:20" ht="93" customHeight="1">
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="M61" s="8" t="s">
+    <row r="68" spans="3:16" ht="180" customHeight="1">
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="M68" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N61" s="8" t="s">
+      <c r="N68" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O61" s="8" t="s">
+      <c r="O68" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="3:20" ht="120" customHeight="1">
-      <c r="C62" s="18" t="s">
+    <row r="69" spans="3:16" ht="18.75" customHeight="1">
+      <c r="C69" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18" t="s">
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18" t="s">
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="M62" s="7" t="s">
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="M69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N62" s="7" t="s">
+      <c r="N69" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O62" s="7" t="s">
+      <c r="O69" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="3:20" ht="37.5">
-      <c r="M63" s="7" t="s">
+    <row r="70" spans="3:16">
+      <c r="M70" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N63" s="9" t="s">
+      <c r="N70" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O63" s="10" t="s">
+      <c r="O70" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="3:20">
-      <c r="M64" s="7" t="s">
+    <row r="71" spans="3:16">
+      <c r="M71" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N64" s="7" t="s">
+      <c r="N71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O64" s="7" t="s">
+      <c r="O71" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="13:15" ht="56.25">
-      <c r="M65" s="8" t="s">
+    <row r="72" spans="3:16" ht="37.5">
+      <c r="M72" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N65" s="10" t="s">
+      <c r="N72" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O65" s="10" t="s">
+      <c r="O72" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="13:15" ht="75">
-      <c r="M66" s="8" t="s">
+    <row r="73" spans="3:16" ht="56.25">
+      <c r="M73" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N66" s="8" t="s">
+      <c r="N73" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="O66" s="7" t="s">
+      <c r="O73" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="13:15">
-      <c r="M67" s="7" t="s">
+    <row r="74" spans="3:16">
+      <c r="M74" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N67" s="7" t="s">
+      <c r="N74" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="O67" s="7" t="s">
+      <c r="O74" s="7" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="75" spans="3:16" ht="33.75">
+      <c r="C75" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C58:K58"/>
-    <mergeCell ref="L19:T19"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
+  <mergeCells count="67">
+    <mergeCell ref="C75:P75"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="O55:S55"/>
+    <mergeCell ref="O56:S56"/>
+    <mergeCell ref="O57:S57"/>
+    <mergeCell ref="O58:S58"/>
+    <mergeCell ref="M52:S52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:S53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E53:L53"/>
+    <mergeCell ref="E54:L54"/>
+    <mergeCell ref="E55:L55"/>
+    <mergeCell ref="E56:L56"/>
+    <mergeCell ref="E57:L57"/>
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
     <mergeCell ref="A2:T3"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N67:O67"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="C13:K13"/>
     <mergeCell ref="L13:T13"/>
@@ -1901,13 +2241,26 @@
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="L18:T18"/>
+    <mergeCell ref="L19:T19"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
     <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="I69:K69"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/So sanh SCADA _ DCS.xlsx
+++ b/So sanh SCADA _ DCS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>So sánh các đặt trưng của SCADA và DCS</t>
   </si>
@@ -278,13 +278,96 @@
   </si>
   <si>
     <t xml:space="preserve"> Các ký hiệu trong  chương trình PLC</t>
+  </si>
+  <si>
+    <t>Giao diện quá trình</t>
+  </si>
+  <si>
+    <t>thiết bị cảm biến, thiết bị đo, thiết bị chuyển đổi, cơ cấu chấp hành.</t>
+  </si>
+  <si>
+    <t>trạm thu thập dữ liệu trung gian</t>
+  </si>
+  <si>
+    <t>là thiết bị đầu cuối từ xa RTU hoặc các khối điều khiển ligic khả trình PLC có chức năng giao tiếp với thiết bị chấp hành.</t>
+  </si>
+  <si>
+    <t>Hệ thống truyền thông</t>
+  </si>
+  <si>
+    <t>mạng  truyền thông công nghiệp, các thiết bị viễn thông các thiết bị chuyển đổi dồn kênh logic  có chức năng truyền dữ liệu cấp trường đến các khói điều khiển</t>
+  </si>
+  <si>
+    <t>Hệ thống điều khiển giám sát</t>
+  </si>
+  <si>
+    <t>gồm các phần mềm và giao giện người máy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trạm điều khiển cục bộ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trạm vận hành</t>
+  </si>
+  <si>
+    <t>Trạm kỹ thuật</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> là nơi thực hiện mọi chức năng điều khiển cho một công đoạn. Các trạm này thường được đặt trong phòng điều khiển hoặc phòng điện ở cạnh  phòng điều khiển trung tâm hoặc rải rác gần khu vực hiện trường</t>
+  </si>
+  <si>
+    <t>Các trạm vận hành có thể hoạt động song song, độc lập với nhau. Để tiện cho việc vận hành hệ thống,</t>
+  </si>
+  <si>
+    <t>à nơi cài đặt các công cụ phát triển, cho phép đặt cấu hình cho hệ thống, tạo và theo dõi các chương trình ứng dụng điều khiển và giao diện người - máy, đặt cấu hình và tham số hóa các thiết bị trường.</t>
+  </si>
+  <si>
+    <t>gồm bus trường (field bus) và bus hệ thống (system bus). Bus trường có chức năng ghép nối trạm điều khiển với các trạm vào/ ra phân tán và các thiết bị trường thông minh, còn bus hệ thống sẽ nối mạng các trạm điều khiển cục bộ với nhau và với các trạm vận hành, trạm kỹ thuật.</t>
+  </si>
+  <si>
+    <t>PHÂN BIỆT SCADA VÀ DCS</t>
+  </si>
+  <si>
+    <t>Scada</t>
+  </si>
+  <si>
+    <t>DCS</t>
+  </si>
+  <si>
+    <t>Mục tiêu</t>
+  </si>
+  <si>
+    <t>Hướng đến quá trình,
+tập trung vào kiểm soát và đưa thông tin tới người quản lý</t>
+  </si>
+  <si>
+    <t>hướng tới thu thập dữ diệu,
+tập trung chủ yếu vào trung tâm đk và bản thân người quản lý.</t>
+  </si>
+  <si>
+    <t>Chức năng</t>
+  </si>
+  <si>
+    <t>dùng giao diện người-máy</t>
+  </si>
+  <si>
+    <t>hệ thống đk có vòng đk quy trình khép kín tại thiết bị đầu cuối từ xa(RTU) or các khối đk logic khả trình.</t>
+  </si>
+  <si>
+    <t>Kết nối</t>
+  </si>
+  <si>
+    <t>điều khiển theo quá trình</t>
+  </si>
+  <si>
+    <t>điều khiển theo sự kiện</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,8 +565,20 @@
       <name val="UTM Avo"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="UTM Avo"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +639,11 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -643,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -655,8 +755,9 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,6 +823,84 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,71 +913,29 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="20% - Accent1" xfId="7" builtinId="30"/>
     <cellStyle name="40% - Accent1" xfId="8" builtinId="31"/>
     <cellStyle name="40% - Accent2" xfId="9" builtinId="35"/>
@@ -810,6 +947,7 @@
     <cellStyle name="Input" xfId="6" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="11" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -829,15 +967,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>149678</xdr:colOff>
+      <xdr:colOff>149679</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>102054</xdr:rowOff>
+      <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>322721</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>414132</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>380</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -846,16 +984,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="460" r="1133"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6698116" y="9722304"/>
-          <a:ext cx="6292855" cy="7077415"/>
+          <a:off x="7281005" y="9765196"/>
+          <a:ext cx="5780670" cy="6593336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -866,14 +1003,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>272142</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12090</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>99391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>443711</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>170090</xdr:rowOff>
     </xdr:to>
@@ -899,8 +1036,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1057955" y="9674679"/>
-          <a:ext cx="5544911" cy="6545036"/>
+          <a:off x="1627199" y="9732065"/>
+          <a:ext cx="5558555" cy="6555982"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -923,13 +1060,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>383540</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:colOff>159910</xdr:colOff>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>297815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -959,13 +1096,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -995,13 +1132,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>485775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1031,14 +1168,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>495300</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>992256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>260985</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>1119505</xdr:rowOff>
+      <xdr:colOff>37355</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>1616461</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1053,8 +1190,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1390650" y="25936575"/>
-          <a:ext cx="4832985" cy="624205"/>
+          <a:off x="1919909" y="39440126"/>
+          <a:ext cx="4859489" cy="624205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1067,13 +1204,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>132715</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>521998</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>2032544</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1372,17 +1509,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V75"/>
+  <dimension ref="A2:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:T17"/>
+    <sheetView tabSelected="1" topLeftCell="B77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79:K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="7" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="7"/>
     <col min="8" max="12" width="9.140625" style="7" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" style="7" customWidth="1"/>
@@ -1402,81 +1539,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:22" ht="37.5" customHeight="1">
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="11"/>
@@ -1485,260 +1622,260 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="32"/>
-      <c r="H6" s="27" t="s">
+      <c r="A6" s="47"/>
+      <c r="H6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="32"/>
-      <c r="H7" s="27" t="s">
+      <c r="A7" s="47"/>
+      <c r="H7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="32"/>
+      <c r="A8" s="47"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="32"/>
+      <c r="A9" s="47"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="32"/>
+      <c r="A10" s="47"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="32"/>
+      <c r="A11" s="47"/>
     </row>
     <row r="12" spans="1:22" ht="79.5" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="47"/>
+      <c r="C12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:22" ht="38.25" customHeight="1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
     </row>
     <row r="14" spans="1:22" ht="48.75" customHeight="1">
-      <c r="A14" s="36"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
     </row>
     <row r="15" spans="1:22" ht="54" customHeight="1">
-      <c r="A15" s="36"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="7">
         <v>3</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
     </row>
     <row r="16" spans="1:22" ht="106.5" customHeight="1">
-      <c r="A16" s="36"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="12">
         <v>4</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
     </row>
     <row r="17" spans="1:20" ht="107.25" customHeight="1">
-      <c r="A17" s="36"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="7">
         <v>5</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
     </row>
     <row r="18" spans="1:20" ht="42" customHeight="1">
-      <c r="A18" s="36"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="12">
         <v>6</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
     </row>
     <row r="19" spans="1:20" ht="59.25" customHeight="1">
-      <c r="A19" s="36"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="7">
         <v>7</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
     </row>
     <row r="20" spans="1:20">
       <c r="C20" s="13"/>
@@ -1752,163 +1889,163 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="52" spans="1:20" s="17" customFormat="1" ht="27">
-      <c r="C52" s="43" t="s">
+    <row r="52" spans="1:21" s="17" customFormat="1" ht="27">
+      <c r="C52" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43" t="s">
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-    </row>
-    <row r="53" spans="1:20" s="17" customFormat="1" ht="69.75" customHeight="1">
-      <c r="C53" s="44" t="s">
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+    </row>
+    <row r="53" spans="1:21" s="17" customFormat="1" ht="69.75" customHeight="1">
+      <c r="C53" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="44"/>
-      <c r="E53" s="22" t="s">
+      <c r="D53" s="32"/>
+      <c r="E53" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="45" t="s">
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="N53" s="45"/>
-      <c r="O53" s="22" t="s">
+      <c r="N53" s="28"/>
+      <c r="O53" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-    </row>
-    <row r="54" spans="1:20" s="17" customFormat="1" ht="87" customHeight="1">
-      <c r="C54" s="44" t="s">
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+    </row>
+    <row r="54" spans="1:21" s="17" customFormat="1" ht="87" customHeight="1">
+      <c r="C54" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="44"/>
-      <c r="E54" s="22" t="s">
+      <c r="D54" s="32"/>
+      <c r="E54" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="45" t="s">
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="N54" s="45"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-    </row>
-    <row r="55" spans="1:20" s="17" customFormat="1" ht="52.5" customHeight="1">
-      <c r="C55" s="44" t="s">
+      <c r="N54" s="28"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+    </row>
+    <row r="55" spans="1:21" s="17" customFormat="1" ht="52.5" customHeight="1">
+      <c r="C55" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="44"/>
-      <c r="E55" s="22" t="s">
+      <c r="D55" s="32"/>
+      <c r="E55" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="45" t="s">
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="N55" s="45"/>
-      <c r="O55" s="22" t="s">
+      <c r="N55" s="28"/>
+      <c r="O55" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-    </row>
-    <row r="56" spans="1:20" s="17" customFormat="1" ht="45.75" customHeight="1">
-      <c r="C56" s="44" t="s">
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+    </row>
+    <row r="56" spans="1:21" s="17" customFormat="1" ht="45.75" customHeight="1">
+      <c r="C56" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="44"/>
-      <c r="E56" s="22" t="s">
+      <c r="D56" s="32"/>
+      <c r="E56" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="45" t="s">
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="N56" s="45"/>
-      <c r="O56" s="22" t="s">
+      <c r="N56" s="28"/>
+      <c r="O56" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-    </row>
-    <row r="57" spans="1:20" ht="61.5" customHeight="1">
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+    </row>
+    <row r="57" spans="1:21" ht="61.5" customHeight="1">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="44"/>
-      <c r="E57" s="22" t="s">
+      <c r="D57" s="32"/>
+      <c r="E57" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="45" t="s">
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="N57" s="45"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-    </row>
-    <row r="58" spans="1:20" s="17" customFormat="1" ht="61.5" customHeight="1">
+      <c r="N57" s="28"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+    </row>
+    <row r="58" spans="1:21" s="17" customFormat="1" ht="61.5" customHeight="1">
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
       <c r="E58" s="16"/>
@@ -1919,163 +2056,265 @@
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
       <c r="L58" s="16"/>
-      <c r="M58" s="46" t="s">
+      <c r="M58" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="N58" s="46"/>
-      <c r="O58" s="22" t="s">
+      <c r="N58" s="29"/>
+      <c r="O58" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-    </row>
-    <row r="59" spans="1:20" ht="23.25" customHeight="1">
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-    </row>
-    <row r="60" spans="1:20" ht="50.25" customHeight="1">
-      <c r="C60" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-    </row>
-    <row r="61" spans="1:20" ht="155.25" customHeight="1">
-      <c r="C61" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-    </row>
-    <row r="62" spans="1:20" ht="88.5" customHeight="1">
-      <c r="C62" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-    </row>
-    <row r="63" spans="1:20" ht="27">
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-    </row>
-    <row r="64" spans="1:20" ht="13.5" customHeight="1"/>
-    <row r="65" spans="3:16" ht="93" customHeight="1">
-      <c r="C65" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N65" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="O65" s="35"/>
-      <c r="P65" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="3:16" ht="180.75" customHeight="1" thickBot="1">
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O66" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P66" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="3:16" ht="93" customHeight="1" thickTop="1">
-      <c r="C67" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="N67" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="O67" s="22"/>
-      <c r="P67" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="3:16" ht="180" customHeight="1">
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+    </row>
+    <row r="59" spans="1:21" s="23" customFormat="1" ht="61.5" customHeight="1">
+      <c r="C59" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="53"/>
+      <c r="E59" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="N59" s="55"/>
+      <c r="O59" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="54"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="54"/>
+    </row>
+    <row r="60" spans="1:21" s="23" customFormat="1" ht="61.5" customHeight="1">
+      <c r="C60" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="53"/>
+      <c r="E60" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="N60" s="55"/>
+      <c r="O60" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="54"/>
+    </row>
+    <row r="61" spans="1:21" s="23" customFormat="1" ht="61.5" customHeight="1">
+      <c r="C61" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="53"/>
+      <c r="E61" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="N61" s="55"/>
+      <c r="O61" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
+    </row>
+    <row r="62" spans="1:21" s="23" customFormat="1" ht="90" customHeight="1">
+      <c r="C62" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="53"/>
+      <c r="E62" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="N62" s="55"/>
+      <c r="O62" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
+    </row>
+    <row r="63" spans="1:21" s="23" customFormat="1" ht="61.5" customHeight="1">
+      <c r="C63" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="56"/>
+      <c r="Q63" s="56"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="56"/>
+      <c r="T63" s="56"/>
+      <c r="U63" s="56"/>
+    </row>
+    <row r="64" spans="1:21" s="23" customFormat="1" ht="14.25" customHeight="1">
+      <c r="D64" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="57"/>
+      <c r="U64" s="57"/>
+    </row>
+    <row r="65" spans="3:21" s="23" customFormat="1" ht="73.5" customHeight="1">
+      <c r="C65" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="57"/>
+      <c r="S65" s="57"/>
+      <c r="T65" s="57"/>
+      <c r="U65" s="57"/>
+    </row>
+    <row r="66" spans="3:21" s="23" customFormat="1" ht="76.5" customHeight="1">
+      <c r="C66" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="57"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="57"/>
+      <c r="U66" s="57"/>
+    </row>
+    <row r="67" spans="3:21" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C67" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="O67" s="57"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="57"/>
+      <c r="S67" s="57"/>
+      <c r="T67" s="57"/>
+      <c r="U67" s="57"/>
+    </row>
+    <row r="68" spans="3:21" s="23" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
@@ -2083,151 +2322,326 @@
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
-      <c r="M68" s="8" t="s">
+      <c r="L68" s="22"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
+    </row>
+    <row r="69" spans="3:21" ht="23.25" customHeight="1">
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+    </row>
+    <row r="70" spans="3:21" ht="50.25" customHeight="1">
+      <c r="C70" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+    </row>
+    <row r="71" spans="3:21" ht="155.25" customHeight="1">
+      <c r="C71" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+    </row>
+    <row r="72" spans="3:21" ht="88.5" customHeight="1">
+      <c r="C72" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+    </row>
+    <row r="73" spans="3:21" ht="27">
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+    </row>
+    <row r="74" spans="3:21" ht="13.5" customHeight="1"/>
+    <row r="75" spans="3:21" ht="93" customHeight="1">
+      <c r="C75" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="52"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N75" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O75" s="37"/>
+      <c r="P75" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="3:21" ht="180.75" customHeight="1" thickBot="1">
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="3:21" ht="93" customHeight="1" thickTop="1">
+      <c r="C77" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="N77" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O77" s="30"/>
+      <c r="P77" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="3:21" ht="165" customHeight="1">
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="M78" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N68" s="8" t="s">
+      <c r="N78" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O68" s="8" t="s">
+      <c r="O78" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="3:16" ht="18.75" customHeight="1">
-      <c r="C69" s="22" t="s">
+    <row r="79" spans="3:21" ht="73.5" customHeight="1">
+      <c r="C79" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22" t="s">
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22" t="s">
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="M69" s="7" t="s">
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="M79" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N69" s="7" t="s">
+      <c r="N79" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O69" s="7" t="s">
+      <c r="O79" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="3:16">
-      <c r="M70" s="7" t="s">
+    <row r="80" spans="3:21">
+      <c r="M80" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N70" s="9" t="s">
+      <c r="N80" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O70" s="10" t="s">
+      <c r="O80" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="3:16">
-      <c r="M71" s="7" t="s">
+    <row r="81" spans="3:16">
+      <c r="M81" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N71" s="7" t="s">
+      <c r="N81" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O71" s="7" t="s">
+      <c r="O81" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="3:16" ht="37.5">
-      <c r="M72" s="8" t="s">
+    <row r="82" spans="3:16" ht="37.5">
+      <c r="M82" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N72" s="10" t="s">
+      <c r="N82" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O72" s="10" t="s">
+      <c r="O82" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="3:16" ht="56.25">
-      <c r="M73" s="8" t="s">
+    <row r="83" spans="3:16" ht="56.25">
+      <c r="M83" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N73" s="8" t="s">
+      <c r="N83" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="O73" s="7" t="s">
+      <c r="O83" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="3:16">
-      <c r="M74" s="7" t="s">
+    <row r="84" spans="3:16">
+      <c r="M84" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N74" s="7" t="s">
+      <c r="N84" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="O74" s="7" t="s">
+      <c r="O84" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="3:16" ht="33.75">
-      <c r="C75" s="47" t="s">
+    <row r="85" spans="3:16" ht="33.75">
+      <c r="C85" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47"/>
-      <c r="P75" s="47"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="C75:P75"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O54:S54"/>
-    <mergeCell ref="O55:S55"/>
-    <mergeCell ref="O56:S56"/>
-    <mergeCell ref="O57:S57"/>
-    <mergeCell ref="O58:S58"/>
-    <mergeCell ref="M52:S52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:S53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E53:L53"/>
-    <mergeCell ref="E54:L54"/>
-    <mergeCell ref="E55:L55"/>
-    <mergeCell ref="E56:L56"/>
-    <mergeCell ref="E57:L57"/>
-    <mergeCell ref="C52:L52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
+  <mergeCells count="92">
+    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="N66:U66"/>
+    <mergeCell ref="D67:M67"/>
+    <mergeCell ref="N67:U67"/>
+    <mergeCell ref="C63:U63"/>
+    <mergeCell ref="N64:U64"/>
+    <mergeCell ref="D64:M64"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="N65:U65"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="O60:U60"/>
+    <mergeCell ref="O61:U61"/>
+    <mergeCell ref="O62:U62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:L62"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:L59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:L60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:L61"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="C76:K76"/>
+    <mergeCell ref="C75:K75"/>
+    <mergeCell ref="L19:T19"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="C19:K19"/>
     <mergeCell ref="A2:T3"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N77:O77"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="C13:K13"/>
     <mergeCell ref="L13:T13"/>
@@ -2241,26 +2655,37 @@
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="L18:T18"/>
-    <mergeCell ref="L19:T19"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="C65:K65"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="I68:K68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E53:L53"/>
+    <mergeCell ref="E54:L54"/>
+    <mergeCell ref="E55:L55"/>
+    <mergeCell ref="E56:L56"/>
+    <mergeCell ref="E57:L57"/>
+    <mergeCell ref="M52:S52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:S53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="C85:P85"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="O55:S55"/>
+    <mergeCell ref="O56:S56"/>
+    <mergeCell ref="O57:S57"/>
+    <mergeCell ref="O58:S58"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
